--- a/data_year/zb/批发和零售业/连锁零售企业/按业态分连锁零售企业门店总数.xlsx
+++ b/data_year/zb/批发和零售业/连锁零售企业/按业态分连锁零售企业门店总数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,760 +498,517 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12177</v>
+        <v>84678</v>
       </c>
       <c r="C2" t="n">
-        <v>2901</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+        <v>27641</v>
+      </c>
+      <c r="D2" t="n">
+        <v>272</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14202</v>
+      </c>
       <c r="F2" t="n">
-        <v>513</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>5745</v>
+      </c>
+      <c r="G2" t="n">
+        <v>31040</v>
+      </c>
+      <c r="H2" t="n">
+        <v>66</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6322</v>
+      </c>
+      <c r="J2" t="n">
+        <v>108</v>
+      </c>
+      <c r="K2" t="n">
+        <v>701</v>
+      </c>
       <c r="L2" t="n">
-        <v>1550</v>
+        <v>4239</v>
       </c>
       <c r="M2" t="n">
-        <v>10281</v>
+        <v>32818</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22132</v>
+        <v>95680</v>
       </c>
       <c r="C3" t="n">
-        <v>3648</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+        <v>31768</v>
+      </c>
+      <c r="D3" t="n">
+        <v>265</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13609</v>
+      </c>
       <c r="F3" t="n">
-        <v>92</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>7397</v>
+      </c>
+      <c r="G3" t="n">
+        <v>31845</v>
+      </c>
+      <c r="H3" t="n">
+        <v>74</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2542</v>
+      </c>
+      <c r="J3" t="n">
+        <v>116</v>
+      </c>
+      <c r="K3" t="n">
+        <v>948</v>
+      </c>
       <c r="L3" t="n">
-        <v>2129</v>
+        <v>4826</v>
       </c>
       <c r="M3" t="n">
-        <v>11717</v>
+        <v>38554</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25867</v>
+        <v>89227</v>
       </c>
       <c r="C4" t="n">
-        <v>4493</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+        <v>28939</v>
+      </c>
+      <c r="D4" t="n">
+        <v>351</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13277</v>
+      </c>
       <c r="F4" t="n">
-        <v>66</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>13241</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25300</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11947</v>
+      </c>
+      <c r="J4" t="n">
+        <v>49</v>
+      </c>
+      <c r="K4" t="n">
+        <v>432</v>
+      </c>
       <c r="L4" t="n">
-        <v>2637</v>
+        <v>4377</v>
       </c>
       <c r="M4" t="n">
-        <v>14073</v>
+        <v>31016</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67471</v>
+        <v>104054</v>
       </c>
       <c r="C5" t="n">
-        <v>5195</v>
+        <v>26113</v>
       </c>
       <c r="D5" t="n">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="E5" t="n">
-        <v>10043</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
+        <v>14680</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10705</v>
+      </c>
       <c r="G5" t="n">
-        <v>30957</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+        <v>31073</v>
+      </c>
+      <c r="H5" t="n">
+        <v>232</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9380</v>
+      </c>
       <c r="J5" t="n">
-        <v>120</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>62</v>
+      </c>
+      <c r="K5" t="n">
+        <v>408</v>
+      </c>
       <c r="L5" t="n">
-        <v>3853</v>
+        <v>4514</v>
       </c>
       <c r="M5" t="n">
-        <v>18924</v>
+        <v>33835</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63992</v>
+        <v>108809</v>
       </c>
       <c r="C6" t="n">
-        <v>18005</v>
+        <v>22854</v>
       </c>
       <c r="D6" t="n">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="E6" t="n">
-        <v>13817</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
+        <v>16832</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9685</v>
+      </c>
       <c r="G6" t="n">
-        <v>20551</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+        <v>34985</v>
+      </c>
+      <c r="H6" t="n">
+        <v>309</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9481</v>
+      </c>
       <c r="J6" t="n">
-        <v>82</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>69</v>
+      </c>
+      <c r="K6" t="n">
+        <v>377</v>
+      </c>
       <c r="L6" t="n">
-        <v>5353</v>
+        <v>4689</v>
       </c>
       <c r="M6" t="n">
-        <v>21066</v>
+        <v>33202</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84943</v>
+        <v>112959</v>
       </c>
       <c r="C7" t="n">
-        <v>13047</v>
+        <v>21093</v>
       </c>
       <c r="D7" t="n">
-        <v>324</v>
+        <v>128</v>
       </c>
       <c r="E7" t="n">
-        <v>13912</v>
+        <v>17675</v>
       </c>
       <c r="F7" t="n">
-        <v>550</v>
+        <v>10425</v>
       </c>
       <c r="G7" t="n">
-        <v>26390</v>
+        <v>35710</v>
       </c>
       <c r="H7" t="n">
-        <v>46</v>
+        <v>306</v>
       </c>
       <c r="I7" t="n">
-        <v>7332</v>
+        <v>8584</v>
       </c>
       <c r="J7" t="n">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="K7" t="n">
-        <v>628</v>
+        <v>410</v>
       </c>
       <c r="L7" t="n">
-        <v>3674</v>
+        <v>4867</v>
       </c>
       <c r="M7" t="n">
-        <v>27145</v>
+        <v>33301</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>93656</v>
+        <v>118601</v>
       </c>
       <c r="C8" t="n">
-        <v>14651</v>
+        <v>32413</v>
       </c>
       <c r="D8" t="n">
-        <v>331</v>
+        <v>97</v>
       </c>
       <c r="E8" t="n">
-        <v>16196</v>
+        <v>18588</v>
       </c>
       <c r="F8" t="n">
-        <v>601</v>
+        <v>14725</v>
       </c>
       <c r="G8" t="n">
-        <v>27361</v>
+        <v>35970</v>
       </c>
       <c r="H8" t="n">
-        <v>50</v>
+        <v>612</v>
       </c>
       <c r="I8" t="n">
-        <v>8072</v>
+        <v>8452</v>
       </c>
       <c r="J8" t="n">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="K8" t="n">
-        <v>784</v>
+        <v>540</v>
       </c>
       <c r="L8" t="n">
-        <v>3805</v>
+        <v>4987</v>
       </c>
       <c r="M8" t="n">
-        <v>30240</v>
+        <v>33372</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>82704</v>
+        <v>125362</v>
       </c>
       <c r="C9" t="n">
-        <v>24075</v>
+        <v>31238</v>
       </c>
       <c r="D9" t="n">
-        <v>179</v>
+        <v>98</v>
       </c>
       <c r="E9" t="n">
-        <v>15779</v>
+        <v>24060</v>
       </c>
       <c r="F9" t="n">
-        <v>10548</v>
+        <v>11941</v>
       </c>
       <c r="G9" t="n">
-        <v>29345</v>
+        <v>33321</v>
       </c>
       <c r="H9" t="n">
-        <v>410</v>
+        <v>711</v>
       </c>
       <c r="I9" t="n">
-        <v>2493</v>
+        <v>6155</v>
       </c>
       <c r="J9" t="n">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="K9" t="n">
-        <v>859</v>
+        <v>448</v>
       </c>
       <c r="L9" t="n">
-        <v>5304</v>
+        <v>6148</v>
       </c>
       <c r="M9" t="n">
-        <v>33224</v>
+        <v>29881</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>84678</v>
+        <v>137136</v>
       </c>
       <c r="C10" t="n">
-        <v>27641</v>
+        <v>34054</v>
       </c>
       <c r="D10" t="n">
-        <v>272</v>
+        <v>100</v>
       </c>
       <c r="E10" t="n">
-        <v>14202</v>
+        <v>28895</v>
       </c>
       <c r="F10" t="n">
-        <v>5745</v>
+        <v>9824</v>
       </c>
       <c r="G10" t="n">
-        <v>31040</v>
+        <v>35551</v>
       </c>
       <c r="H10" t="n">
-        <v>66</v>
+        <v>686</v>
       </c>
       <c r="I10" t="n">
-        <v>6322</v>
+        <v>4760</v>
       </c>
       <c r="J10" t="n">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="K10" t="n">
-        <v>701</v>
+        <v>72</v>
       </c>
       <c r="L10" t="n">
-        <v>4239</v>
+        <v>5942</v>
       </c>
       <c r="M10" t="n">
-        <v>32818</v>
+        <v>28164</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>95680</v>
+        <v>139139</v>
       </c>
       <c r="C11" t="n">
-        <v>31768</v>
+        <v>37511</v>
       </c>
       <c r="D11" t="n">
-        <v>265</v>
+        <v>101</v>
       </c>
       <c r="E11" t="n">
-        <v>13609</v>
+        <v>31064</v>
       </c>
       <c r="F11" t="n">
-        <v>7397</v>
+        <v>7457</v>
       </c>
       <c r="G11" t="n">
-        <v>31845</v>
+        <v>36236</v>
       </c>
       <c r="H11" t="n">
-        <v>74</v>
+        <v>630</v>
       </c>
       <c r="I11" t="n">
-        <v>2542</v>
+        <v>5341</v>
       </c>
       <c r="J11" t="n">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="K11" t="n">
-        <v>948</v>
+        <v>285</v>
       </c>
       <c r="L11" t="n">
-        <v>4826</v>
+        <v>4148</v>
       </c>
       <c r="M11" t="n">
-        <v>38554</v>
+        <v>26927</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>89227</v>
+        <v>152404</v>
       </c>
       <c r="C12" t="n">
-        <v>28939</v>
+        <v>38700</v>
       </c>
       <c r="D12" t="n">
-        <v>351</v>
+        <v>102</v>
       </c>
       <c r="E12" t="n">
-        <v>13277</v>
+        <v>34778</v>
       </c>
       <c r="F12" t="n">
-        <v>13241</v>
+        <v>7303</v>
       </c>
       <c r="G12" t="n">
-        <v>25300</v>
+        <v>37079</v>
       </c>
       <c r="H12" t="n">
-        <v>14</v>
+        <v>582</v>
       </c>
       <c r="I12" t="n">
-        <v>11947</v>
+        <v>5340</v>
       </c>
       <c r="J12" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K12" t="n">
-        <v>432</v>
+        <v>284</v>
       </c>
       <c r="L12" t="n">
-        <v>4377</v>
+        <v>5732</v>
       </c>
       <c r="M12" t="n">
-        <v>31016</v>
+        <v>24082</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>104054</v>
+        <v>168993</v>
       </c>
       <c r="C13" t="n">
-        <v>26113</v>
+        <v>40517</v>
       </c>
       <c r="D13" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E13" t="n">
-        <v>14680</v>
+        <v>39308</v>
       </c>
       <c r="F13" t="n">
-        <v>10705</v>
+        <v>8284</v>
       </c>
       <c r="G13" t="n">
-        <v>31073</v>
+        <v>37360</v>
       </c>
       <c r="H13" t="n">
-        <v>232</v>
+        <v>449</v>
       </c>
       <c r="I13" t="n">
-        <v>9380</v>
+        <v>5031</v>
       </c>
       <c r="J13" t="n">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="K13" t="n">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="L13" t="n">
-        <v>4514</v>
+        <v>4540</v>
       </c>
       <c r="M13" t="n">
-        <v>33835</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>108809</v>
-      </c>
-      <c r="C14" t="n">
-        <v>22854</v>
-      </c>
-      <c r="D14" t="n">
-        <v>108</v>
-      </c>
-      <c r="E14" t="n">
-        <v>16832</v>
-      </c>
-      <c r="F14" t="n">
-        <v>9685</v>
-      </c>
-      <c r="G14" t="n">
-        <v>34985</v>
-      </c>
-      <c r="H14" t="n">
-        <v>309</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9481</v>
-      </c>
-      <c r="J14" t="n">
-        <v>69</v>
-      </c>
-      <c r="K14" t="n">
-        <v>377</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4689</v>
-      </c>
-      <c r="M14" t="n">
-        <v>33202</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>112959</v>
-      </c>
-      <c r="C15" t="n">
-        <v>21093</v>
-      </c>
-      <c r="D15" t="n">
-        <v>128</v>
-      </c>
-      <c r="E15" t="n">
-        <v>17675</v>
-      </c>
-      <c r="F15" t="n">
-        <v>10425</v>
-      </c>
-      <c r="G15" t="n">
-        <v>35710</v>
-      </c>
-      <c r="H15" t="n">
-        <v>306</v>
-      </c>
-      <c r="I15" t="n">
-        <v>8584</v>
-      </c>
-      <c r="J15" t="n">
-        <v>64</v>
-      </c>
-      <c r="K15" t="n">
-        <v>410</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4867</v>
-      </c>
-      <c r="M15" t="n">
-        <v>33301</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>118601</v>
-      </c>
-      <c r="C16" t="n">
-        <v>32413</v>
-      </c>
-      <c r="D16" t="n">
-        <v>97</v>
-      </c>
-      <c r="E16" t="n">
-        <v>18588</v>
-      </c>
-      <c r="F16" t="n">
-        <v>14725</v>
-      </c>
-      <c r="G16" t="n">
-        <v>35970</v>
-      </c>
-      <c r="H16" t="n">
-        <v>612</v>
-      </c>
-      <c r="I16" t="n">
-        <v>8452</v>
-      </c>
-      <c r="J16" t="n">
-        <v>57</v>
-      </c>
-      <c r="K16" t="n">
-        <v>540</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4987</v>
-      </c>
-      <c r="M16" t="n">
-        <v>33372</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>125362</v>
-      </c>
-      <c r="C17" t="n">
-        <v>31238</v>
-      </c>
-      <c r="D17" t="n">
-        <v>98</v>
-      </c>
-      <c r="E17" t="n">
-        <v>24060</v>
-      </c>
-      <c r="F17" t="n">
-        <v>11941</v>
-      </c>
-      <c r="G17" t="n">
-        <v>33321</v>
-      </c>
-      <c r="H17" t="n">
-        <v>711</v>
-      </c>
-      <c r="I17" t="n">
-        <v>6155</v>
-      </c>
-      <c r="J17" t="n">
-        <v>61</v>
-      </c>
-      <c r="K17" t="n">
-        <v>448</v>
-      </c>
-      <c r="L17" t="n">
-        <v>6148</v>
-      </c>
-      <c r="M17" t="n">
-        <v>29881</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>137136</v>
-      </c>
-      <c r="C18" t="n">
-        <v>34054</v>
-      </c>
-      <c r="D18" t="n">
-        <v>100</v>
-      </c>
-      <c r="E18" t="n">
-        <v>28895</v>
-      </c>
-      <c r="F18" t="n">
-        <v>9824</v>
-      </c>
-      <c r="G18" t="n">
-        <v>35551</v>
-      </c>
-      <c r="H18" t="n">
-        <v>686</v>
-      </c>
-      <c r="I18" t="n">
-        <v>4760</v>
-      </c>
-      <c r="J18" t="n">
-        <v>78</v>
-      </c>
-      <c r="K18" t="n">
-        <v>72</v>
-      </c>
-      <c r="L18" t="n">
-        <v>5942</v>
-      </c>
-      <c r="M18" t="n">
-        <v>28164</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>139139</v>
-      </c>
-      <c r="C19" t="n">
-        <v>37511</v>
-      </c>
-      <c r="D19" t="n">
-        <v>101</v>
-      </c>
-      <c r="E19" t="n">
-        <v>31064</v>
-      </c>
-      <c r="F19" t="n">
-        <v>7457</v>
-      </c>
-      <c r="G19" t="n">
-        <v>36236</v>
-      </c>
-      <c r="H19" t="n">
-        <v>630</v>
-      </c>
-      <c r="I19" t="n">
-        <v>5341</v>
-      </c>
-      <c r="J19" t="n">
-        <v>53</v>
-      </c>
-      <c r="K19" t="n">
-        <v>285</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4148</v>
-      </c>
-      <c r="M19" t="n">
-        <v>26927</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>152404</v>
-      </c>
-      <c r="C20" t="n">
-        <v>38700</v>
-      </c>
-      <c r="D20" t="n">
-        <v>102</v>
-      </c>
-      <c r="E20" t="n">
-        <v>34778</v>
-      </c>
-      <c r="F20" t="n">
-        <v>7303</v>
-      </c>
-      <c r="G20" t="n">
-        <v>37079</v>
-      </c>
-      <c r="H20" t="n">
-        <v>582</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5340</v>
-      </c>
-      <c r="J20" t="n">
-        <v>38</v>
-      </c>
-      <c r="K20" t="n">
-        <v>284</v>
-      </c>
-      <c r="L20" t="n">
-        <v>5732</v>
-      </c>
-      <c r="M20" t="n">
-        <v>24082</v>
+        <v>24685</v>
       </c>
     </row>
   </sheetData>
